--- a/data/span.xlsx
+++ b/data/span.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,12 +440,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
